--- a/feature/JR/レシート印字項目一覧.xlsx
+++ b/feature/JR/レシート印字項目一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\feature\JR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECFBF85-88A7-4C3F-B7CD-2523304FF941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAEA4D-2276-4E81-A674-0DC1767C6E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50205" yWindow="4125" windowWidth="17280" windowHeight="8880" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EBC1795E-BD59-4226-93D9-E2CD2852C343}"/>
   </bookViews>
   <sheets>
     <sheet name="印字項目_売上票(251204)" sheetId="3" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="161">
   <si>
     <t>＜売上票＞</t>
     <rPh sb="1" eb="3">
@@ -701,42 +701,21 @@
     <t>/v1/terminal</t>
   </si>
   <si>
-    <t>receipt_branch_office_name</t>
-  </si>
-  <si>
     <t>レシートに印字する支店名</t>
   </si>
   <si>
-    <t>receipt_sales_office_name</t>
-  </si>
-  <si>
     <t>レシートに印字する営業所名</t>
   </si>
   <si>
-    <t>receipt_tel_no</t>
-  </si>
-  <si>
     <t>レシートに印字する電話番号</t>
   </si>
   <si>
-    <t>invoice_no</t>
-  </si>
-  <si>
     <t>インボイス番号</t>
   </si>
   <si>
-    <t>staff_no</t>
-  </si>
-  <si>
-    <t>terminal_no</t>
-  </si>
-  <si>
     <t>端末に登録された一意の番号</t>
   </si>
   <si>
-    <t>device_no</t>
-  </si>
-  <si>
     <t>/v1/transactions/{id}</t>
   </si>
   <si>
@@ -773,12 +752,6 @@
     <t>credit&gt;approval_no</t>
   </si>
   <si>
-    <t>product_code</t>
-  </si>
-  <si>
-    <t>credit&gt;credit_type</t>
-  </si>
-  <si>
     <t>クレジットカード種別（磁気、IC、非接触）</t>
   </si>
   <si>
@@ -810,9 +783,6 @@
   </si>
   <si>
     <t>取引金額</t>
-  </si>
-  <si>
-    <t>receipt_tax</t>
   </si>
   <si>
     <t>レシートに印字する消費税率、小数点以下は最大5桁（消費税 10.5% の場合は 0.105）</t>
@@ -1207,6 +1177,50 @@
   </si>
   <si>
     <t>exec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_branch_office_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_sales_office_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_tel_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invoice_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/terminal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staff_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>terminal_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>credit&gt;credit_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_tax</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3387,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE0305-EFA8-4AEB-8F26-B4F8C61021B0}">
   <dimension ref="B5:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3453,13 +3467,13 @@
         <v>77</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>78</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3623,13 +3637,13 @@
         <v>80</v>
       </c>
       <c r="M12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="27" t="s">
-        <v>82</v>
-      </c>
       <c r="O12" s="28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -3661,13 +3675,13 @@
         <v>80</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -3699,13 +3713,13 @@
         <v>80</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -3737,13 +3751,13 @@
         <v>80</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -3772,16 +3786,16 @@
         <v>22</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="N16" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="28" t="s">
         <v>123</v>
-      </c>
-      <c r="O16" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -3813,13 +3827,13 @@
         <v>80</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -3851,13 +3865,13 @@
         <v>80</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O18" s="28" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -3904,16 +3918,16 @@
         <v>25</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O20" s="28" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -3942,16 +3956,16 @@
         <v>27</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O21" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -3980,16 +3994,16 @@
         <v>28</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O22" s="28" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -4005,13 +4019,13 @@
       <c r="K23" s="43"/>
       <c r="L23" s="36"/>
       <c r="M23" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O23" s="28" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -4040,16 +4054,16 @@
         <v>29</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M24" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O24" s="28" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -4078,16 +4092,16 @@
         <v>30</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O25" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -4116,16 +4130,16 @@
         <v>31</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O26" s="28" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -4154,16 +4168,16 @@
         <v>32</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O27" s="28" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:15">
@@ -4192,16 +4206,16 @@
         <v>33</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O28" s="28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -4233,13 +4247,13 @@
         <v>80</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="O29" s="28" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -4268,16 +4282,16 @@
         <v>35</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O30" s="28" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="2:15">
@@ -4306,16 +4320,16 @@
         <v>36</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O31" s="28" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:15">
@@ -4344,16 +4358,16 @@
         <v>37</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O32" s="28" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:15">
@@ -4382,16 +4396,16 @@
         <v>38</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O33" s="28" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:15">
@@ -4420,16 +4434,16 @@
         <v>39</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O34" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="2:15">
@@ -4458,16 +4472,16 @@
         <v>40</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O35" s="28" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:15">
@@ -4493,19 +4507,19 @@
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
       <c r="K36" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O36" s="28" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:15">
@@ -4531,19 +4545,19 @@
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
       <c r="K37" s="21" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O37" s="28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:15">
@@ -4572,16 +4586,16 @@
         <v>41</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O38" s="28" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:15">
@@ -4610,16 +4624,16 @@
         <v>42</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O39" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="2:15">
@@ -4646,16 +4660,16 @@
         <v>43</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O40" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:15">
@@ -4687,13 +4701,13 @@
         <v>80</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="2:15">
@@ -4722,16 +4736,16 @@
         <v>45</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O42" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="2:15">
@@ -4776,16 +4790,16 @@
         <v>46</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O44" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="2:15">
@@ -4814,16 +4828,16 @@
         <v>47</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O45" s="28" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="2:15">
@@ -5053,7 +5067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D59410-1305-4D65-922F-CEC874D8D43A}">
   <dimension ref="B7:AD83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -6790,21 +6804,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A256A1D13445FB459777A6578A3808EC" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="6d30369f283582947136962c37b852e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f166c515-2747-4aab-860d-22b8106144db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a229ef0d5e2f321f098da91af15e85" ns2:_="">
     <xsd:import namespace="f166c515-2747-4aab-860d-22b8106144db"/>
@@ -6942,31 +6941,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FECA2B5-2831-44D4-B53E-224B8EB92E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f166c515-2747-4aab-860d-22b8106144db"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91D153C-2FB8-403C-AA16-BFB1ABCD7A5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7FEC683-3D22-4050-ABC4-38599AB68756}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6982,4 +6972,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91D153C-2FB8-403C-AA16-BFB1ABCD7A5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FECA2B5-2831-44D4-B53E-224B8EB92E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f166c515-2747-4aab-860d-22b8106144db"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>